--- a/testdata/internal/test_validation_okay_but_errors_on_ingestion_before_fix_20240221.xlsx
+++ b/testdata/internal/test_validation_okay_but_errors_on_ingestion_before_fix_20240221.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dmichaels/repos/cgap/submitr/testdata/demo/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dmichaels/repos/cgap/submitr/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F44DEBC-AFAA-CD46-B3C4-D8921C14F11E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{009FB656-2212-EB45-8EFD-A018691DE002}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="51200" windowHeight="26820" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6360" yWindow="7640" windowWidth="24960" windowHeight="14300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="FileFormat" sheetId="1" r:id="rId1"/>
@@ -178,7 +178,7 @@
     <t>valid_item_types</t>
   </si>
   <si>
-    <t>AlignedReads</t>
+    <t>AlignedReads|ReferenceFile|UnalignedReads</t>
   </si>
 </sst>
 </file>
